--- a/Code/Results/Cases/Case_5_115/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_115/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.60576839526442</v>
+        <v>12.58410635944461</v>
       </c>
       <c r="C2">
-        <v>6.83743523936312</v>
+        <v>7.246377296395679</v>
       </c>
       <c r="D2">
-        <v>5.040549064281866</v>
+        <v>7.804520551221181</v>
       </c>
       <c r="E2">
-        <v>7.673796405905183</v>
+        <v>13.01364591543346</v>
       </c>
       <c r="F2">
-        <v>25.31776970725601</v>
+        <v>38.8146951746339</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>18.53114411067717</v>
+        <v>29.36583346004858</v>
       </c>
       <c r="J2">
-        <v>6.166344394232631</v>
+        <v>10.3624905419177</v>
       </c>
       <c r="K2">
-        <v>10.70781271808238</v>
+        <v>10.06824227607603</v>
       </c>
       <c r="L2">
-        <v>6.581503148959898</v>
+        <v>11.13782472131582</v>
       </c>
       <c r="M2">
-        <v>9.645703944168213</v>
+        <v>14.98491546710325</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.17204675448195</v>
+        <v>30.07246463931372</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.76180654561646</v>
+        <v>12.38499528303822</v>
       </c>
       <c r="C3">
-        <v>6.684049443238144</v>
+        <v>7.194066479136485</v>
       </c>
       <c r="D3">
-        <v>4.896720015664399</v>
+        <v>7.793294854945007</v>
       </c>
       <c r="E3">
-        <v>7.687931778928466</v>
+        <v>13.03679928334488</v>
       </c>
       <c r="F3">
-        <v>25.32329585915549</v>
+        <v>38.92015916069266</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>18.72668779125883</v>
+        <v>29.46717665757866</v>
       </c>
       <c r="J3">
-        <v>6.213138691222828</v>
+        <v>10.37960624037694</v>
       </c>
       <c r="K3">
-        <v>10.09792326186698</v>
+        <v>9.922934195092827</v>
       </c>
       <c r="L3">
-        <v>6.515582863907146</v>
+        <v>11.14571950887442</v>
       </c>
       <c r="M3">
-        <v>9.345766820662691</v>
+        <v>14.95777706981444</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.28943166982645</v>
+        <v>30.16798427002439</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.22616082068438</v>
+        <v>12.26296533776107</v>
       </c>
       <c r="C4">
-        <v>6.587875197210657</v>
+        <v>7.161339742216431</v>
       </c>
       <c r="D4">
-        <v>4.807831543414637</v>
+        <v>7.787328045980961</v>
       </c>
       <c r="E4">
-        <v>7.699103950613069</v>
+        <v>13.05225367842496</v>
       </c>
       <c r="F4">
-        <v>25.3438520427602</v>
+        <v>38.9918714873321</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>18.85672934131939</v>
+        <v>29.53377498106243</v>
       </c>
       <c r="J4">
-        <v>6.242823461309137</v>
+        <v>10.39067825499223</v>
       </c>
       <c r="K4">
-        <v>9.703821125467293</v>
+        <v>9.833963979635687</v>
       </c>
       <c r="L4">
-        <v>6.476908622003467</v>
+        <v>11.15170351253038</v>
       </c>
       <c r="M4">
-        <v>9.159515955335632</v>
+        <v>14.94280531527304</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.37353050593298</v>
+        <v>30.23155128500857</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.01307541412085</v>
+        <v>12.21335399516977</v>
       </c>
       <c r="C5">
-        <v>6.54820824617458</v>
+        <v>7.147855362866677</v>
       </c>
       <c r="D5">
-        <v>4.771514983318885</v>
+        <v>7.785131243769025</v>
       </c>
       <c r="E5">
-        <v>7.704275194043392</v>
+        <v>13.05886336288557</v>
       </c>
       <c r="F5">
-        <v>25.3564170244999</v>
+        <v>39.02284296610626</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>18.91216186782355</v>
+        <v>29.56201461733676</v>
       </c>
       <c r="J5">
-        <v>6.255163348772795</v>
+        <v>10.39533214014762</v>
       </c>
       <c r="K5">
-        <v>9.538335458654664</v>
+        <v>9.797811637268685</v>
       </c>
       <c r="L5">
-        <v>6.461609346343035</v>
+        <v>11.15442854263819</v>
       </c>
       <c r="M5">
-        <v>9.083199426752762</v>
+        <v>14.93713375477335</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.41072509985198</v>
+        <v>30.25869163816903</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.97731672484274</v>
+        <v>12.20512489676291</v>
       </c>
       <c r="C6">
-        <v>6.541593688916156</v>
+        <v>7.14560749684972</v>
       </c>
       <c r="D6">
-        <v>4.765480534817871</v>
+        <v>7.784780696690831</v>
       </c>
       <c r="E6">
-        <v>7.705170985864285</v>
+        <v>13.0599797497145</v>
       </c>
       <c r="F6">
-        <v>25.35875262744819</v>
+        <v>39.02809129929332</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>18.92151180127792</v>
+        <v>29.56677025970038</v>
       </c>
       <c r="J6">
-        <v>6.257227160648025</v>
+        <v>10.39611349945196</v>
       </c>
       <c r="K6">
-        <v>9.51056335650955</v>
+        <v>9.791816034705828</v>
       </c>
       <c r="L6">
-        <v>6.459096959232245</v>
+        <v>11.15489835550091</v>
       </c>
       <c r="M6">
-        <v>9.070505175736386</v>
+        <v>14.93621805980369</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.417074960593</v>
+        <v>30.26327293277623</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.22331234988239</v>
+        <v>12.26229570876982</v>
       </c>
       <c r="C7">
-        <v>6.587342122491213</v>
+        <v>7.161158479870198</v>
       </c>
       <c r="D7">
-        <v>4.807342075496999</v>
+        <v>7.787297466310051</v>
       </c>
       <c r="E7">
-        <v>7.699171198601645</v>
+        <v>13.05234155536017</v>
       </c>
       <c r="F7">
-        <v>25.34400471033786</v>
+        <v>38.99228210321875</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>18.85746713427077</v>
+        <v>29.53415137487424</v>
       </c>
       <c r="J7">
-        <v>6.242988892481715</v>
+        <v>10.39074044363255</v>
       </c>
       <c r="K7">
-        <v>9.701609033581009</v>
+        <v>9.833475942193711</v>
       </c>
       <c r="L7">
-        <v>6.476700415029811</v>
+        <v>11.15173910230878</v>
       </c>
       <c r="M7">
-        <v>9.158488268171027</v>
+        <v>14.94272708194971</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.37402041693874</v>
+        <v>30.23191230404968</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.32119272554308</v>
+        <v>12.515442126783</v>
       </c>
       <c r="C8">
-        <v>6.784977081673596</v>
+        <v>7.228469540969915</v>
       </c>
       <c r="D8">
-        <v>4.991106380867419</v>
+        <v>7.800458962107554</v>
       </c>
       <c r="E8">
-        <v>7.678147798089937</v>
+        <v>13.02137255627092</v>
       </c>
       <c r="F8">
-        <v>25.31603660639996</v>
+        <v>38.84961449975903</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>18.59645377061821</v>
+        <v>29.39986930230215</v>
       </c>
       <c r="J8">
-        <v>6.182283438296877</v>
+        <v>10.36827544588721</v>
       </c>
       <c r="K8">
-        <v>10.50162166962306</v>
+        <v>10.0181127915142</v>
       </c>
       <c r="L8">
-        <v>6.558404977214749</v>
+        <v>11.14031137705546</v>
       </c>
       <c r="M8">
-        <v>9.542781019399911</v>
+        <v>14.97520973029132</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.20996430538196</v>
+        <v>30.10437900006779</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.25671273005845</v>
+        <v>13.0110361157133</v>
       </c>
       <c r="C9">
-        <v>7.155656607055128</v>
+        <v>7.355435849691197</v>
       </c>
       <c r="D9">
-        <v>5.344798003274239</v>
+        <v>7.833526182768928</v>
       </c>
       <c r="E9">
-        <v>7.657081555191741</v>
+        <v>12.9704418864653</v>
       </c>
       <c r="F9">
-        <v>25.40299514668741</v>
+        <v>38.62509793578187</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>18.16712073437197</v>
+        <v>29.17121445272189</v>
       </c>
       <c r="J9">
-        <v>6.07063599311455</v>
+        <v>10.3286696768517</v>
       </c>
       <c r="K9">
-        <v>11.91325675402486</v>
+        <v>10.38037951472745</v>
       </c>
       <c r="L9">
-        <v>6.732542226017441</v>
+        <v>11.12688851664159</v>
       </c>
       <c r="M9">
-        <v>10.27550646977717</v>
+        <v>15.05213288979557</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.98830971042466</v>
+        <v>29.89331760710099</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.532280549581</v>
+        <v>13.37122926788367</v>
       </c>
       <c r="C10">
-        <v>7.41645201530825</v>
+        <v>7.4453774665055</v>
       </c>
       <c r="D10">
-        <v>5.598037967781506</v>
+        <v>7.86212066768973</v>
       </c>
       <c r="E10">
-        <v>7.654422503789604</v>
+        <v>12.9389636937074</v>
       </c>
       <c r="F10">
-        <v>25.56087134647139</v>
+        <v>38.49389752951039</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>17.90700049225107</v>
+        <v>29.02432052228513</v>
       </c>
       <c r="J10">
-        <v>5.992877284824692</v>
+        <v>10.30225714405718</v>
       </c>
       <c r="K10">
-        <v>12.8534638357775</v>
+        <v>10.64430490157418</v>
       </c>
       <c r="L10">
-        <v>6.868431581312523</v>
+        <v>11.1224624267025</v>
       </c>
       <c r="M10">
-        <v>10.79597096622354</v>
+        <v>15.1164368620733</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.89310877126683</v>
+        <v>29.76206111843597</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.08135350429344</v>
+        <v>13.53354713994561</v>
       </c>
       <c r="C11">
-        <v>7.532369462532067</v>
+        <v>7.485511803575077</v>
       </c>
       <c r="D11">
-        <v>5.711342459091422</v>
+        <v>7.876033870329921</v>
       </c>
       <c r="E11">
-        <v>7.656111275716277</v>
+        <v>12.92592621830805</v>
       </c>
       <c r="F11">
-        <v>25.65466211310465</v>
+        <v>38.44155171748028</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>17.80188746188026</v>
+        <v>28.96206842909637</v>
       </c>
       <c r="J11">
-        <v>5.958374762143751</v>
+        <v>10.29081911561181</v>
       </c>
       <c r="K11">
-        <v>13.26010350211316</v>
+        <v>10.7634059408459</v>
       </c>
       <c r="L11">
-        <v>6.9318581291798</v>
+        <v>11.12161933640091</v>
       </c>
       <c r="M11">
-        <v>11.02795388373101</v>
+        <v>15.14731861439833</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.86599694832805</v>
+        <v>29.70752257859958</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.28483631312197</v>
+        <v>13.5947368301244</v>
       </c>
       <c r="C12">
-        <v>7.575857938599278</v>
+        <v>7.500592591093877</v>
       </c>
       <c r="D12">
-        <v>5.753941816098354</v>
+        <v>7.881429985092463</v>
       </c>
       <c r="E12">
-        <v>7.65717707963234</v>
+        <v>12.9211730505913</v>
       </c>
       <c r="F12">
-        <v>25.69346108067459</v>
+        <v>38.42278562840853</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>17.76409486609381</v>
+        <v>28.93915198385195</v>
       </c>
       <c r="J12">
-        <v>5.945430050657848</v>
+        <v>10.28657041556398</v>
       </c>
       <c r="K12">
-        <v>13.41106350207322</v>
+        <v>10.80832979856551</v>
       </c>
       <c r="L12">
-        <v>6.956097255395488</v>
+        <v>11.12146746386476</v>
       </c>
       <c r="M12">
-        <v>11.11504840669982</v>
+        <v>15.15924131839281</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.85818879594833</v>
+        <v>29.68761411169555</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.24120934351318</v>
+        <v>13.58157169738716</v>
       </c>
       <c r="C13">
-        <v>7.566510243234815</v>
+        <v>7.497349965159315</v>
       </c>
       <c r="D13">
-        <v>5.744781418363595</v>
+        <v>7.880262209591805</v>
       </c>
       <c r="E13">
-        <v>7.656928426884521</v>
+        <v>12.92218856232849</v>
       </c>
       <c r="F13">
-        <v>25.6849571204216</v>
+        <v>38.4267802563387</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>17.77214286793457</v>
+        <v>28.9440582297043</v>
       </c>
       <c r="J13">
-        <v>5.948212634102071</v>
+        <v>10.28748177974798</v>
       </c>
       <c r="K13">
-        <v>13.37868600923168</v>
+        <v>10.79866312633426</v>
       </c>
       <c r="L13">
-        <v>6.950867270213236</v>
+        <v>11.12149274265168</v>
       </c>
       <c r="M13">
-        <v>11.09632545152792</v>
+        <v>15.15666348598013</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.85975897419535</v>
+        <v>29.69186865386857</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.09818285960792</v>
+        <v>13.53858710596824</v>
       </c>
       <c r="C14">
-        <v>7.535955523763689</v>
+        <v>7.486754886398812</v>
       </c>
       <c r="D14">
-        <v>5.714853459402309</v>
+        <v>7.876475272844258</v>
       </c>
       <c r="E14">
-        <v>7.656190361346087</v>
+        <v>12.92553149091073</v>
       </c>
       <c r="F14">
-        <v>25.65778765056671</v>
+        <v>38.43998664871517</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>17.79873726667786</v>
+        <v>28.96016991166611</v>
       </c>
       <c r="J14">
-        <v>5.957307401566568</v>
+        <v>10.29046791847653</v>
       </c>
       <c r="K14">
-        <v>13.27258366809818</v>
+        <v>10.76710562213044</v>
       </c>
       <c r="L14">
-        <v>6.933847930472659</v>
+        <v>11.12160349241735</v>
       </c>
       <c r="M14">
-        <v>11.03513462406562</v>
+        <v>15.14829495826436</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.86530453883438</v>
+        <v>29.70586978119067</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.00999827019375</v>
+        <v>13.51222017285071</v>
       </c>
       <c r="C15">
-        <v>7.517186449613416</v>
+        <v>7.480249683673816</v>
       </c>
       <c r="D15">
-        <v>5.696480849854294</v>
+        <v>7.874172184889155</v>
       </c>
       <c r="E15">
-        <v>7.655794076666587</v>
+        <v>12.9276030570892</v>
       </c>
       <c r="F15">
-        <v>25.6415766263793</v>
+        <v>38.44821351043193</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>17.81529247820218</v>
+        <v>28.97012434695578</v>
       </c>
       <c r="J15">
-        <v>5.962893783613521</v>
+        <v>10.29230776523485</v>
       </c>
       <c r="K15">
-        <v>13.20719910547524</v>
+        <v>10.74775153795851</v>
       </c>
       <c r="L15">
-        <v>6.923451544190565</v>
+        <v>11.12169310094372</v>
       </c>
       <c r="M15">
-        <v>10.99755370646393</v>
+        <v>15.14319856695778</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.8690254393978</v>
+        <v>29.7145427950787</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.49577362157948</v>
+        <v>13.36058569187143</v>
       </c>
       <c r="C16">
-        <v>7.408820400500963</v>
+        <v>7.442738459637741</v>
       </c>
       <c r="D16">
-        <v>5.590592112033326</v>
+        <v>7.86122939738753</v>
       </c>
       <c r="E16">
-        <v>7.654371272428301</v>
+        <v>12.93984147800491</v>
       </c>
       <c r="F16">
-        <v>25.55519461386848</v>
+        <v>38.49746619423954</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>17.91414512834098</v>
+        <v>29.02848080036524</v>
       </c>
       <c r="J16">
-        <v>5.995149238243461</v>
+        <v>10.3030162290856</v>
       </c>
       <c r="K16">
-        <v>12.82646525103434</v>
+        <v>10.63649867866338</v>
       </c>
       <c r="L16">
-        <v>6.864317990476644</v>
+        <v>11.12254099853924</v>
       </c>
       <c r="M16">
-        <v>10.78070840520167</v>
+        <v>15.11445096060719</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.89521747991051</v>
+        <v>29.76572943584393</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.17235737330542</v>
+        <v>13.26712910506104</v>
       </c>
       <c r="C17">
-        <v>7.34163272453687</v>
+        <v>7.419523057965723</v>
       </c>
       <c r="D17">
-        <v>5.525121851531481</v>
+        <v>7.853519424105951</v>
       </c>
       <c r="E17">
-        <v>7.654247509493896</v>
+        <v>12.94767736061902</v>
       </c>
       <c r="F17">
-        <v>25.50791810504986</v>
+        <v>38.52956126717078</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>17.97824956540078</v>
+        <v>29.0654511170964</v>
       </c>
       <c r="J17">
-        <v>6.015156680259797</v>
+        <v>10.30973309162716</v>
       </c>
       <c r="K17">
-        <v>12.58750256045362</v>
+        <v>10.56797453476489</v>
       </c>
       <c r="L17">
-        <v>6.828446197317318</v>
+        <v>11.12336028020554</v>
       </c>
       <c r="M17">
-        <v>10.64640772460567</v>
+        <v>15.0972284934209</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.91552451023649</v>
+        <v>29.79845552319797</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.98339842100787</v>
+        <v>13.21323398082151</v>
       </c>
       <c r="C18">
-        <v>7.302732958581851</v>
+        <v>7.40609699616836</v>
       </c>
       <c r="D18">
-        <v>5.487288447679835</v>
+        <v>7.849170244135246</v>
       </c>
       <c r="E18">
-        <v>7.654448558441085</v>
+        <v>12.95230506323764</v>
       </c>
       <c r="F18">
-        <v>25.4827868826201</v>
+        <v>38.54871213701229</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>18.01635767386508</v>
+        <v>29.08714569049115</v>
       </c>
       <c r="J18">
-        <v>6.026746630303405</v>
+        <v>10.31365080029094</v>
       </c>
       <c r="K18">
-        <v>12.44807413859322</v>
+        <v>10.52847315778869</v>
       </c>
       <c r="L18">
-        <v>6.807965847894554</v>
+        <v>11.12394172621656</v>
       </c>
       <c r="M18">
-        <v>10.56871504504654</v>
+        <v>15.08747633252382</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.92872098236978</v>
+        <v>29.81776536156988</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.91891410264032</v>
+        <v>13.19496347420868</v>
       </c>
       <c r="C19">
-        <v>7.289518858895761</v>
+        <v>7.40153874689898</v>
       </c>
       <c r="D19">
-        <v>5.474449468757415</v>
+        <v>7.847712433613665</v>
       </c>
       <c r="E19">
-        <v>7.654563098547581</v>
+        <v>12.95389267183173</v>
       </c>
       <c r="F19">
-        <v>25.47462805846675</v>
+        <v>38.55531487752587</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>18.02946962143666</v>
+        <v>29.09456499797192</v>
       </c>
       <c r="J19">
-        <v>6.030685039829934</v>
+        <v>10.31498661437869</v>
       </c>
       <c r="K19">
-        <v>12.40052541422251</v>
+        <v>10.51508475272712</v>
       </c>
       <c r="L19">
-        <v>6.801058011669668</v>
+        <v>11.12415755070304</v>
       </c>
       <c r="M19">
-        <v>10.54233508170705</v>
+        <v>15.08420099993919</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.93344563921622</v>
+        <v>29.82438690785338</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.20708937838831</v>
+        <v>13.2770927604192</v>
       </c>
       <c r="C20">
-        <v>7.348811501147656</v>
+        <v>7.422001986891765</v>
       </c>
       <c r="D20">
-        <v>5.532109812950116</v>
+        <v>7.85433134539605</v>
       </c>
       <c r="E20">
-        <v>7.654232440517725</v>
+        <v>12.94683072827741</v>
       </c>
       <c r="F20">
-        <v>25.51273656638708</v>
+        <v>38.52607320651549</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>17.97129674343659</v>
+        <v>29.06147103851788</v>
       </c>
       <c r="J20">
-        <v>6.013018378635833</v>
+        <v>10.30901244807102</v>
       </c>
       <c r="K20">
-        <v>12.61314581535467</v>
+        <v>10.57527845270821</v>
       </c>
       <c r="L20">
-        <v>6.832249140513443</v>
+        <v>11.12326166569457</v>
       </c>
       <c r="M20">
-        <v>10.66075096958915</v>
+        <v>15.0990459841034</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.91320492342631</v>
+        <v>29.79492140389928</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.14031331338441</v>
+        <v>13.55122066046296</v>
       </c>
       <c r="C21">
-        <v>7.544941344444639</v>
+        <v>7.489870138270128</v>
       </c>
       <c r="D21">
-        <v>5.723652599033901</v>
+        <v>7.877584150175686</v>
       </c>
       <c r="E21">
-        <v>7.656395502887349</v>
+        <v>12.92454460656162</v>
       </c>
       <c r="F21">
-        <v>25.66567793527354</v>
+        <v>38.43607894126222</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>17.7908703341624</v>
+        <v>28.95541968878522</v>
       </c>
       <c r="J21">
-        <v>5.954632810551786</v>
+        <v>10.28958857738178</v>
       </c>
       <c r="K21">
-        <v>13.30383055357844</v>
+        <v>10.77637993736911</v>
       </c>
       <c r="L21">
-        <v>6.938841012735061</v>
+        <v>11.12156642713121</v>
       </c>
       <c r="M21">
-        <v>11.05312874946845</v>
+        <v>15.15074684538825</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.86360789706677</v>
+        <v>29.70173711188913</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.72437607471321</v>
+        <v>13.72874294267774</v>
       </c>
       <c r="C22">
-        <v>7.670745883578232</v>
+        <v>7.533540431564778</v>
       </c>
       <c r="D22">
-        <v>5.847036771768368</v>
+        <v>7.893522957543901</v>
       </c>
       <c r="E22">
-        <v>7.660298515941063</v>
+        <v>12.91105065817505</v>
       </c>
       <c r="F22">
-        <v>25.78482116475503</v>
+        <v>38.38341875953839</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>17.68473263459032</v>
+        <v>28.88993884420126</v>
       </c>
       <c r="J22">
-        <v>5.917175437298401</v>
+        <v>10.27737543802363</v>
       </c>
       <c r="K22">
-        <v>13.7376031333517</v>
+        <v>10.90676190826747</v>
       </c>
       <c r="L22">
-        <v>7.009787565289257</v>
+        <v>11.12143370158037</v>
       </c>
       <c r="M22">
-        <v>11.30516065620216</v>
+        <v>15.18586508164667</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.84558624026141</v>
+        <v>29.64517318261297</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.41500092801442</v>
+        <v>13.63416344596826</v>
       </c>
       <c r="C23">
-        <v>7.603823808376323</v>
+        <v>7.510297116177508</v>
       </c>
       <c r="D23">
-        <v>5.781359259005226</v>
+        <v>7.884949170079435</v>
       </c>
       <c r="E23">
-        <v>7.65798445301381</v>
+        <v>12.91815478120834</v>
       </c>
       <c r="F23">
-        <v>25.71943681997203</v>
+        <v>38.41096092143827</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>17.7402635901932</v>
+        <v>28.92453682900485</v>
       </c>
       <c r="J23">
-        <v>5.937104546168267</v>
+        <v>10.28384988354917</v>
       </c>
       <c r="K23">
-        <v>13.50770096369291</v>
+        <v>10.83728315430304</v>
       </c>
       <c r="L23">
-        <v>6.971808161213263</v>
+        <v>11.12141561899278</v>
       </c>
       <c r="M23">
-        <v>11.17106929795671</v>
+        <v>15.1670022339391</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.85384398660589</v>
+        <v>29.67496536745226</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.19139645720008</v>
+        <v>13.27258870364843</v>
       </c>
       <c r="C24">
-        <v>7.345566824335868</v>
+        <v>7.420881509506441</v>
       </c>
       <c r="D24">
-        <v>5.528951156235761</v>
+        <v>7.853964015849617</v>
       </c>
       <c r="E24">
-        <v>7.654238406072846</v>
+        <v>12.94721310837453</v>
       </c>
       <c r="F24">
-        <v>25.51055176820745</v>
+        <v>38.52764798152094</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>17.97443621781067</v>
+        <v>29.06326906192906</v>
       </c>
       <c r="J24">
-        <v>6.013984832214606</v>
+        <v>10.30933807626439</v>
       </c>
       <c r="K24">
-        <v>12.60155887156399</v>
+        <v>10.571976678377</v>
       </c>
       <c r="L24">
-        <v>6.830529384226937</v>
+        <v>11.1233059052726</v>
       </c>
       <c r="M24">
-        <v>10.65426788303739</v>
+        <v>15.09822383118105</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.91424887866811</v>
+        <v>29.79651763683028</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.75901783925292</v>
+        <v>12.87741170337106</v>
       </c>
       <c r="C25">
-        <v>7.057322919251702</v>
+        <v>7.321655085584218</v>
       </c>
       <c r="D25">
-        <v>5.250106679660018</v>
+        <v>7.823816014186602</v>
       </c>
       <c r="E25">
-        <v>7.66056795592855</v>
+        <v>12.98317432365403</v>
       </c>
       <c r="F25">
-        <v>25.36350143325174</v>
+        <v>38.67991272774475</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>18.27393979109185</v>
+        <v>29.22936381494227</v>
       </c>
       <c r="J25">
-        <v>6.100072036897489</v>
+        <v>10.33891057543508</v>
       </c>
       <c r="K25">
-        <v>11.54835179885473</v>
+        <v>10.28260175768464</v>
       </c>
       <c r="L25">
-        <v>6.683997088772061</v>
+        <v>11.12956192883053</v>
       </c>
       <c r="M25">
-        <v>10.08008435843039</v>
+        <v>15.02993462842796</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.03688958858146</v>
+        <v>29.94623505826393</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_115/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_115/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.58410635944461</v>
+        <v>12.60576839526435</v>
       </c>
       <c r="C2">
-        <v>7.246377296395679</v>
+        <v>6.837435239363137</v>
       </c>
       <c r="D2">
-        <v>7.804520551221181</v>
+        <v>5.040549064281822</v>
       </c>
       <c r="E2">
-        <v>13.01364591543346</v>
+        <v>7.673796405905239</v>
       </c>
       <c r="F2">
-        <v>38.8146951746339</v>
+        <v>25.31776970725647</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>29.36583346004858</v>
+        <v>18.53114411067752</v>
       </c>
       <c r="J2">
-        <v>10.3624905419177</v>
+        <v>6.166344394232697</v>
       </c>
       <c r="K2">
-        <v>10.06824227607603</v>
+        <v>10.70781271808228</v>
       </c>
       <c r="L2">
-        <v>11.13782472131582</v>
+        <v>6.58150314895998</v>
       </c>
       <c r="M2">
-        <v>14.98491546710325</v>
+        <v>9.645703944168284</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.07246463931372</v>
+        <v>19.17204675448231</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.38499528303822</v>
+        <v>11.7618065456165</v>
       </c>
       <c r="C3">
-        <v>7.194066479136485</v>
+        <v>6.684049443238252</v>
       </c>
       <c r="D3">
-        <v>7.793294854945007</v>
+        <v>4.896720015664354</v>
       </c>
       <c r="E3">
-        <v>13.03679928334488</v>
+        <v>7.687931778928538</v>
       </c>
       <c r="F3">
-        <v>38.92015916069266</v>
+        <v>25.32329585915535</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>29.46717665757866</v>
+        <v>18.72668779125875</v>
       </c>
       <c r="J3">
-        <v>10.37960624037694</v>
+        <v>6.213138691222862</v>
       </c>
       <c r="K3">
-        <v>9.922934195092827</v>
+        <v>10.09792326186703</v>
       </c>
       <c r="L3">
-        <v>11.14571950887442</v>
+        <v>6.51558286390715</v>
       </c>
       <c r="M3">
-        <v>14.95777706981444</v>
+        <v>9.345766820662678</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>30.16798427002439</v>
+        <v>19.28943166982638</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.26296533776107</v>
+        <v>11.2261608206844</v>
       </c>
       <c r="C4">
-        <v>7.161339742216431</v>
+        <v>6.587875197210757</v>
       </c>
       <c r="D4">
-        <v>7.787328045980961</v>
+        <v>4.807831543414558</v>
       </c>
       <c r="E4">
-        <v>13.05225367842496</v>
+        <v>7.699103950613075</v>
       </c>
       <c r="F4">
-        <v>38.9918714873321</v>
+        <v>25.34385204276032</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>29.53377498106243</v>
+        <v>18.85672934131956</v>
       </c>
       <c r="J4">
-        <v>10.39067825499223</v>
+        <v>6.242823461309239</v>
       </c>
       <c r="K4">
-        <v>9.833963979635687</v>
+        <v>9.703821125467266</v>
       </c>
       <c r="L4">
-        <v>11.15170351253038</v>
+        <v>6.476908622003472</v>
       </c>
       <c r="M4">
-        <v>14.94280531527304</v>
+        <v>9.159515955335655</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>30.23155128500857</v>
+        <v>19.37353050593312</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.21335399516977</v>
+        <v>11.01307541412086</v>
       </c>
       <c r="C5">
-        <v>7.147855362866677</v>
+        <v>6.548208246174833</v>
       </c>
       <c r="D5">
-        <v>7.785131243769025</v>
+        <v>4.771514983318974</v>
       </c>
       <c r="E5">
-        <v>13.05886336288557</v>
+        <v>7.704275194043516</v>
       </c>
       <c r="F5">
-        <v>39.02284296610626</v>
+        <v>25.35641702449981</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>29.56201461733676</v>
+        <v>18.91216186782349</v>
       </c>
       <c r="J5">
-        <v>10.39533214014762</v>
+        <v>6.255163348772827</v>
       </c>
       <c r="K5">
-        <v>9.797811637268685</v>
+        <v>9.538335458654707</v>
       </c>
       <c r="L5">
-        <v>11.15442854263819</v>
+        <v>6.461609346343006</v>
       </c>
       <c r="M5">
-        <v>14.93713375477335</v>
+        <v>9.083199426752786</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>30.25869163816903</v>
+        <v>19.41072509985183</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.20512489676291</v>
+        <v>10.97731672484276</v>
       </c>
       <c r="C6">
-        <v>7.14560749684972</v>
+        <v>6.541593688916267</v>
       </c>
       <c r="D6">
-        <v>7.784780696690831</v>
+        <v>4.765480534818015</v>
       </c>
       <c r="E6">
-        <v>13.0599797497145</v>
+        <v>7.705170985864532</v>
       </c>
       <c r="F6">
-        <v>39.02809129929332</v>
+        <v>25.35875262744854</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>29.56677025970038</v>
+        <v>18.92151180127807</v>
       </c>
       <c r="J6">
-        <v>10.39611349945196</v>
+        <v>6.25722716064816</v>
       </c>
       <c r="K6">
-        <v>9.791816034705828</v>
+        <v>9.510563356509547</v>
       </c>
       <c r="L6">
-        <v>11.15489835550091</v>
+        <v>6.459096959232355</v>
       </c>
       <c r="M6">
-        <v>14.93621805980369</v>
+        <v>9.070505175736496</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>30.26327293277623</v>
+        <v>19.41707496059313</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.26229570876982</v>
+        <v>11.22331234988241</v>
       </c>
       <c r="C7">
-        <v>7.161158479870198</v>
+        <v>6.587342122490971</v>
       </c>
       <c r="D7">
-        <v>7.787297466310051</v>
+        <v>4.80734207549703</v>
       </c>
       <c r="E7">
-        <v>13.05234155536017</v>
+        <v>7.699171198601711</v>
       </c>
       <c r="F7">
-        <v>38.99228210321875</v>
+        <v>25.34400471033791</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>29.53415137487424</v>
+        <v>18.85746713427068</v>
       </c>
       <c r="J7">
-        <v>10.39074044363255</v>
+        <v>6.242988892481685</v>
       </c>
       <c r="K7">
-        <v>9.833475942193711</v>
+        <v>9.701609033580958</v>
       </c>
       <c r="L7">
-        <v>11.15173910230878</v>
+        <v>6.476700415029889</v>
       </c>
       <c r="M7">
-        <v>14.94272708194971</v>
+        <v>9.158488268171098</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>30.23191230404968</v>
+        <v>19.37402041693875</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.515442126783</v>
+        <v>12.32119272554305</v>
       </c>
       <c r="C8">
-        <v>7.228469540969915</v>
+        <v>6.784977081673695</v>
       </c>
       <c r="D8">
-        <v>7.800458962107554</v>
+        <v>4.991106380867325</v>
       </c>
       <c r="E8">
-        <v>13.02137255627092</v>
+        <v>7.678147798089944</v>
       </c>
       <c r="F8">
-        <v>38.84961449975903</v>
+        <v>25.3160366064</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>29.39986930230215</v>
+        <v>18.59645377061834</v>
       </c>
       <c r="J8">
-        <v>10.36827544588721</v>
+        <v>6.182283438296876</v>
       </c>
       <c r="K8">
-        <v>10.0181127915142</v>
+        <v>10.50162166962304</v>
       </c>
       <c r="L8">
-        <v>11.14031137705546</v>
+        <v>6.558404977214725</v>
       </c>
       <c r="M8">
-        <v>14.97520973029132</v>
+        <v>9.542781019399932</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.10437900006779</v>
+        <v>19.20996430538203</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.0110361157133</v>
+        <v>14.25671273005843</v>
       </c>
       <c r="C9">
-        <v>7.355435849691197</v>
+        <v>7.155656607055351</v>
       </c>
       <c r="D9">
-        <v>7.833526182768928</v>
+        <v>5.344798003274333</v>
       </c>
       <c r="E9">
-        <v>12.9704418864653</v>
+        <v>7.657081555191851</v>
       </c>
       <c r="F9">
-        <v>38.62509793578187</v>
+        <v>25.40299514668771</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>29.17121445272189</v>
+        <v>18.16712073437224</v>
       </c>
       <c r="J9">
-        <v>10.3286696768517</v>
+        <v>6.070635993114582</v>
       </c>
       <c r="K9">
-        <v>10.38037951472745</v>
+        <v>11.91325675402486</v>
       </c>
       <c r="L9">
-        <v>11.12688851664159</v>
+        <v>6.732542226017481</v>
       </c>
       <c r="M9">
-        <v>15.05213288979557</v>
+        <v>10.2755064697772</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>29.89331760710099</v>
+        <v>18.98830971042488</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.37122926788367</v>
+        <v>15.53228054958094</v>
       </c>
       <c r="C10">
-        <v>7.4453774665055</v>
+        <v>7.41645201530812</v>
       </c>
       <c r="D10">
-        <v>7.86212066768973</v>
+        <v>5.59803796778144</v>
       </c>
       <c r="E10">
-        <v>12.9389636937074</v>
+        <v>7.654422503789557</v>
       </c>
       <c r="F10">
-        <v>38.49389752951039</v>
+        <v>25.56087134647163</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>29.02432052228513</v>
+        <v>17.9070004922513</v>
       </c>
       <c r="J10">
-        <v>10.30225714405718</v>
+        <v>5.992877284824692</v>
       </c>
       <c r="K10">
-        <v>10.64430490157418</v>
+        <v>12.85346383577742</v>
       </c>
       <c r="L10">
-        <v>11.1224624267025</v>
+        <v>6.868431581312503</v>
       </c>
       <c r="M10">
-        <v>15.1164368620733</v>
+        <v>10.79597096622355</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>29.76206111843597</v>
+        <v>18.8931087712671</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.53354713994561</v>
+        <v>16.08135350429348</v>
       </c>
       <c r="C11">
-        <v>7.485511803575077</v>
+        <v>7.53236946253195</v>
       </c>
       <c r="D11">
-        <v>7.876033870329921</v>
+        <v>5.711342459091505</v>
       </c>
       <c r="E11">
-        <v>12.92592621830805</v>
+        <v>7.656111275716213</v>
       </c>
       <c r="F11">
-        <v>38.44155171748028</v>
+        <v>25.6546621131047</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>28.96206842909637</v>
+        <v>17.80188746188021</v>
       </c>
       <c r="J11">
-        <v>10.29081911561181</v>
+        <v>5.958374762143619</v>
       </c>
       <c r="K11">
-        <v>10.7634059408459</v>
+        <v>13.26010350211314</v>
       </c>
       <c r="L11">
-        <v>11.12161933640091</v>
+        <v>6.931858129179752</v>
       </c>
       <c r="M11">
-        <v>15.14731861439833</v>
+        <v>11.02795388373099</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>29.70752257859958</v>
+        <v>18.86599694832804</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.5947368301244</v>
+        <v>16.28483631312203</v>
       </c>
       <c r="C12">
-        <v>7.500592591093877</v>
+        <v>7.575857938599365</v>
       </c>
       <c r="D12">
-        <v>7.881429985092463</v>
+        <v>5.753941816098402</v>
       </c>
       <c r="E12">
-        <v>12.9211730505913</v>
+        <v>7.657177079632506</v>
       </c>
       <c r="F12">
-        <v>38.42278562840853</v>
+        <v>25.69346108067456</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>28.93915198385195</v>
+        <v>17.76409486609377</v>
       </c>
       <c r="J12">
-        <v>10.28657041556398</v>
+        <v>5.945430050657915</v>
       </c>
       <c r="K12">
-        <v>10.80832979856551</v>
+        <v>13.41106350207327</v>
       </c>
       <c r="L12">
-        <v>11.12146746386476</v>
+        <v>6.956097255395546</v>
       </c>
       <c r="M12">
-        <v>15.15924131839281</v>
+        <v>11.11504840669985</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>29.68761411169555</v>
+        <v>18.85818879594827</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.58157169738716</v>
+        <v>16.24120934351319</v>
       </c>
       <c r="C13">
-        <v>7.497349965159315</v>
+        <v>7.566510243234697</v>
       </c>
       <c r="D13">
-        <v>7.880262209591805</v>
+        <v>5.74478141836363</v>
       </c>
       <c r="E13">
-        <v>12.92218856232849</v>
+        <v>7.656928426884468</v>
       </c>
       <c r="F13">
-        <v>38.4267802563387</v>
+        <v>25.68495712042172</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>28.9440582297043</v>
+        <v>17.77214286793462</v>
       </c>
       <c r="J13">
-        <v>10.28748177974798</v>
+        <v>5.948212634101973</v>
       </c>
       <c r="K13">
-        <v>10.79866312633426</v>
+        <v>13.37868600923164</v>
       </c>
       <c r="L13">
-        <v>11.12149274265168</v>
+        <v>6.950867270213261</v>
       </c>
       <c r="M13">
-        <v>15.15666348598013</v>
+        <v>11.09632545152792</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>29.69186865386857</v>
+        <v>18.85975897419542</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.53858710596824</v>
+        <v>16.0981828596079</v>
       </c>
       <c r="C14">
-        <v>7.486754886398812</v>
+        <v>7.535955523763553</v>
       </c>
       <c r="D14">
-        <v>7.876475272844258</v>
+        <v>5.714853459402329</v>
       </c>
       <c r="E14">
-        <v>12.92553149091073</v>
+        <v>7.656190361346024</v>
       </c>
       <c r="F14">
-        <v>38.43998664871517</v>
+        <v>25.65778765056678</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>28.96016991166611</v>
+        <v>17.79873726667794</v>
       </c>
       <c r="J14">
-        <v>10.29046791847653</v>
+        <v>5.957307401566571</v>
       </c>
       <c r="K14">
-        <v>10.76710562213044</v>
+        <v>13.27258366809817</v>
       </c>
       <c r="L14">
-        <v>11.12160349241735</v>
+        <v>6.933847930472674</v>
       </c>
       <c r="M14">
-        <v>15.14829495826436</v>
+        <v>11.03513462406561</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>29.70586978119067</v>
+        <v>18.86530453883445</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.51222017285071</v>
+        <v>16.00999827019377</v>
       </c>
       <c r="C15">
-        <v>7.480249683673816</v>
+        <v>7.517186449613288</v>
       </c>
       <c r="D15">
-        <v>7.874172184889155</v>
+        <v>5.696480849854312</v>
       </c>
       <c r="E15">
-        <v>12.9276030570892</v>
+        <v>7.655794076666467</v>
       </c>
       <c r="F15">
-        <v>38.44821351043193</v>
+        <v>25.64157662637942</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>28.97012434695578</v>
+        <v>17.81529247820226</v>
       </c>
       <c r="J15">
-        <v>10.29230776523485</v>
+        <v>5.962893783613423</v>
       </c>
       <c r="K15">
-        <v>10.74775153795851</v>
+        <v>13.20719910547522</v>
       </c>
       <c r="L15">
-        <v>11.12169310094372</v>
+        <v>6.923451544190557</v>
       </c>
       <c r="M15">
-        <v>15.14319856695778</v>
+        <v>10.9975537064639</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>29.7145427950787</v>
+        <v>18.86902543939789</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.36058569187143</v>
+        <v>15.49577362157944</v>
       </c>
       <c r="C16">
-        <v>7.442738459637741</v>
+        <v>7.408820400501138</v>
       </c>
       <c r="D16">
-        <v>7.86122939738753</v>
+        <v>5.590592112033342</v>
       </c>
       <c r="E16">
-        <v>12.93984147800491</v>
+        <v>7.654371272428424</v>
       </c>
       <c r="F16">
-        <v>38.49746619423954</v>
+        <v>25.55519461386866</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>29.02848080036524</v>
+        <v>17.91414512834114</v>
       </c>
       <c r="J16">
-        <v>10.3030162290856</v>
+        <v>5.995149238243529</v>
       </c>
       <c r="K16">
-        <v>10.63649867866338</v>
+        <v>12.82646525103434</v>
       </c>
       <c r="L16">
-        <v>11.12254099853924</v>
+        <v>6.864317990476685</v>
       </c>
       <c r="M16">
-        <v>15.11445096060719</v>
+        <v>10.7807084052017</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>29.76572943584393</v>
+        <v>18.89521747991065</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.26712910506104</v>
+        <v>15.1723573733054</v>
       </c>
       <c r="C17">
-        <v>7.419523057965723</v>
+        <v>7.34163272453709</v>
       </c>
       <c r="D17">
-        <v>7.853519424105951</v>
+        <v>5.525121851531519</v>
       </c>
       <c r="E17">
-        <v>12.94767736061902</v>
+        <v>7.654247509494065</v>
       </c>
       <c r="F17">
-        <v>38.52956126717078</v>
+        <v>25.50791810505015</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>29.0654511170964</v>
+        <v>17.97824956540101</v>
       </c>
       <c r="J17">
-        <v>10.30973309162716</v>
+        <v>6.01515668025986</v>
       </c>
       <c r="K17">
-        <v>10.56797453476489</v>
+        <v>12.58750256045365</v>
       </c>
       <c r="L17">
-        <v>11.12336028020554</v>
+        <v>6.828446197317255</v>
       </c>
       <c r="M17">
-        <v>15.0972284934209</v>
+        <v>10.6464077246057</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>29.79845552319797</v>
+        <v>18.91552451023669</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.21323398082151</v>
+        <v>14.98339842100787</v>
       </c>
       <c r="C18">
-        <v>7.40609699616836</v>
+        <v>7.302732958581831</v>
       </c>
       <c r="D18">
-        <v>7.849170244135246</v>
+        <v>5.487288447679879</v>
       </c>
       <c r="E18">
-        <v>12.95230506323764</v>
+        <v>7.654448558441082</v>
       </c>
       <c r="F18">
-        <v>38.54871213701229</v>
+        <v>25.48278688262028</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>29.08714569049115</v>
+        <v>18.01635767386523</v>
       </c>
       <c r="J18">
-        <v>10.31365080029094</v>
+        <v>6.026746630303405</v>
       </c>
       <c r="K18">
-        <v>10.52847315778869</v>
+        <v>12.44807413859317</v>
       </c>
       <c r="L18">
-        <v>11.12394172621656</v>
+        <v>6.807965847894596</v>
       </c>
       <c r="M18">
-        <v>15.08747633252382</v>
+        <v>10.56871504504658</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>29.81776536156988</v>
+        <v>18.92872098236993</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.19496347420868</v>
+        <v>14.9189141026403</v>
       </c>
       <c r="C19">
-        <v>7.40153874689898</v>
+        <v>7.289518858895851</v>
       </c>
       <c r="D19">
-        <v>7.847712433613665</v>
+        <v>5.474449468757383</v>
       </c>
       <c r="E19">
-        <v>12.95389267183173</v>
+        <v>7.654563098547531</v>
       </c>
       <c r="F19">
-        <v>38.55531487752587</v>
+        <v>25.47462805846698</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>29.09456499797192</v>
+        <v>18.02946962143681</v>
       </c>
       <c r="J19">
-        <v>10.31498661437869</v>
+        <v>6.030685039829937</v>
       </c>
       <c r="K19">
-        <v>10.51508475272712</v>
+        <v>12.40052541422242</v>
       </c>
       <c r="L19">
-        <v>11.12415755070304</v>
+        <v>6.801058011669639</v>
       </c>
       <c r="M19">
-        <v>15.08420099993919</v>
+        <v>10.54233508170705</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>29.82438690785338</v>
+        <v>18.93344563921643</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.2770927604192</v>
+        <v>15.20708937838836</v>
       </c>
       <c r="C20">
-        <v>7.422001986891765</v>
+        <v>7.348811501147735</v>
       </c>
       <c r="D20">
-        <v>7.85433134539605</v>
+        <v>5.53210981295009</v>
       </c>
       <c r="E20">
-        <v>12.94683072827741</v>
+        <v>7.654232440517787</v>
       </c>
       <c r="F20">
-        <v>38.52607320651549</v>
+        <v>25.51273656638718</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>29.06147103851788</v>
+        <v>17.97129674343671</v>
       </c>
       <c r="J20">
-        <v>10.30901244807102</v>
+        <v>6.013018378635937</v>
       </c>
       <c r="K20">
-        <v>10.57527845270821</v>
+        <v>12.61314581535472</v>
       </c>
       <c r="L20">
-        <v>11.12326166569457</v>
+        <v>6.832249140513436</v>
       </c>
       <c r="M20">
-        <v>15.0990459841034</v>
+        <v>10.66075096958916</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>29.79492140389928</v>
+        <v>18.91320492342638</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.55122066046296</v>
+        <v>16.1403133133844</v>
       </c>
       <c r="C21">
-        <v>7.489870138270128</v>
+        <v>7.544941344444513</v>
       </c>
       <c r="D21">
-        <v>7.877584150175686</v>
+        <v>5.723652599033892</v>
       </c>
       <c r="E21">
-        <v>12.92454460656162</v>
+        <v>7.656395502887289</v>
       </c>
       <c r="F21">
-        <v>38.43607894126222</v>
+        <v>25.66567793527363</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>28.95541968878522</v>
+        <v>17.79087033416249</v>
       </c>
       <c r="J21">
-        <v>10.28958857738178</v>
+        <v>5.954632810551752</v>
       </c>
       <c r="K21">
-        <v>10.77637993736911</v>
+        <v>13.3038305535784</v>
       </c>
       <c r="L21">
-        <v>11.12156642713121</v>
+        <v>6.938841012735075</v>
       </c>
       <c r="M21">
-        <v>15.15074684538825</v>
+        <v>11.05312874946845</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>29.70173711188913</v>
+        <v>18.86360789706686</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.72874294267774</v>
+        <v>16.72437607471317</v>
       </c>
       <c r="C22">
-        <v>7.533540431564778</v>
+        <v>7.670745883578317</v>
       </c>
       <c r="D22">
-        <v>7.893522957543901</v>
+        <v>5.84703677176832</v>
       </c>
       <c r="E22">
-        <v>12.91105065817505</v>
+        <v>7.660298515941075</v>
       </c>
       <c r="F22">
-        <v>38.38341875953839</v>
+        <v>25.78482116475515</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>28.88993884420126</v>
+        <v>17.68473263459049</v>
       </c>
       <c r="J22">
-        <v>10.27737543802363</v>
+        <v>5.917175437298402</v>
       </c>
       <c r="K22">
-        <v>10.90676190826747</v>
+        <v>13.73760313335167</v>
       </c>
       <c r="L22">
-        <v>11.12143370158037</v>
+        <v>7.009787565289235</v>
       </c>
       <c r="M22">
-        <v>15.18586508164667</v>
+        <v>11.30516065620218</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>29.64517318261297</v>
+        <v>18.84558624026152</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.63416344596826</v>
+        <v>16.41500092801446</v>
       </c>
       <c r="C23">
-        <v>7.510297116177508</v>
+        <v>7.60382380837631</v>
       </c>
       <c r="D23">
-        <v>7.884949170079435</v>
+        <v>5.78135925900528</v>
       </c>
       <c r="E23">
-        <v>12.91815478120834</v>
+        <v>7.657984453013861</v>
       </c>
       <c r="F23">
-        <v>38.41096092143827</v>
+        <v>25.71943681997194</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>28.92453682900485</v>
+        <v>17.74026359019306</v>
       </c>
       <c r="J23">
-        <v>10.28384988354917</v>
+        <v>5.937104546168301</v>
       </c>
       <c r="K23">
-        <v>10.83728315430304</v>
+        <v>13.50770096369298</v>
       </c>
       <c r="L23">
-        <v>11.12141561899278</v>
+        <v>6.971808161213349</v>
       </c>
       <c r="M23">
-        <v>15.1670022339391</v>
+        <v>11.17106929795668</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>29.67496536745226</v>
+        <v>18.85384398660577</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.27258870364843</v>
+        <v>15.19139645720007</v>
       </c>
       <c r="C24">
-        <v>7.420881509506441</v>
+        <v>7.345566824335642</v>
       </c>
       <c r="D24">
-        <v>7.853964015849617</v>
+        <v>5.528951156235854</v>
       </c>
       <c r="E24">
-        <v>12.94721310837453</v>
+        <v>7.654238406072779</v>
       </c>
       <c r="F24">
-        <v>38.52764798152094</v>
+        <v>25.51055176820781</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>29.06326906192906</v>
+        <v>17.97443621781089</v>
       </c>
       <c r="J24">
-        <v>10.30933807626439</v>
+        <v>6.013984832214474</v>
       </c>
       <c r="K24">
-        <v>10.571976678377</v>
+        <v>12.60155887156394</v>
       </c>
       <c r="L24">
-        <v>11.1233059052726</v>
+        <v>6.830529384226927</v>
       </c>
       <c r="M24">
-        <v>15.09822383118105</v>
+        <v>10.65426788303738</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>29.79651763683028</v>
+        <v>18.91424887866834</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.87741170337106</v>
+        <v>13.75901783925293</v>
       </c>
       <c r="C25">
-        <v>7.321655085584218</v>
+        <v>7.057322919251692</v>
       </c>
       <c r="D25">
-        <v>7.823816014186602</v>
+        <v>5.250106679660024</v>
       </c>
       <c r="E25">
-        <v>12.98317432365403</v>
+        <v>7.660567955928614</v>
       </c>
       <c r="F25">
-        <v>38.67991272774475</v>
+        <v>25.36350143325196</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>29.22936381494227</v>
+        <v>18.27393979109202</v>
       </c>
       <c r="J25">
-        <v>10.33891057543508</v>
+        <v>6.100072036897555</v>
       </c>
       <c r="K25">
-        <v>10.28260175768464</v>
+        <v>11.5483517988547</v>
       </c>
       <c r="L25">
-        <v>11.12956192883053</v>
+        <v>6.68399708877211</v>
       </c>
       <c r="M25">
-        <v>15.02993462842796</v>
+        <v>10.08008435843042</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.94623505826393</v>
+        <v>19.03688958858163</v>
       </c>
     </row>
   </sheetData>
